--- a/Outputs/WPI.xlsx
+++ b/Outputs/WPI.xlsx
@@ -552,14 +552,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$177,885.33</t>
+          <t>$449,394.53</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>-0.07315691194327432</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -626,14 +626,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$149,100.25</t>
+          <t>$397,600.67</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>-0.05053339391896839</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -700,14 +700,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$175,711.54</t>
+          <t>$496,126.71</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>-0.7630106113784501</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$164,242.23</t>
+          <t>$437,979.28</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>-0.5778520470336813</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -848,14 +848,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$161,346.58</t>
+          <t>$407,612.42</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>-1.591651563740375</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -922,14 +922,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$149,698.00</t>
+          <t>$439,114.13</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>-0.5327190561846336</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -996,14 +996,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$140,261.89</t>
+          <t>$385,720.19</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>6.451324737832136</v>
       </c>
       <c r="H8" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1070,14 +1070,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$139,649.16</t>
+          <t>$392,763.25</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0.717538809957398</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1144,14 +1144,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$128,973.60</t>
+          <t>$386,920.81</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>-0.699789023367669</v>
       </c>
       <c r="H10" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1529,47 +1529,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$177,885.33</t>
+          <t>$449,394.53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$149,100.25</t>
+          <t>$397,600.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$175,711.54</t>
+          <t>$496,126.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$164,242.23</t>
+          <t>$437,979.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$161,346.58</t>
+          <t>$407,612.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$149,698.00</t>
+          <t>$439,114.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$140,261.89</t>
+          <t>$385,720.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$139,649.16</t>
+          <t>$392,763.25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$128,973.60</t>
+          <t>$386,920.81</t>
         </is>
       </c>
     </row>
@@ -1613,37 +1613,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">

--- a/Outputs/WPI.xlsx
+++ b/Outputs/WPI.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,65 +460,70 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Net/Rev Index</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Total Employees</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Presidents</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Vice Presidents</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Provosts</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Trustees</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Deans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Executives</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Professors</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Treasurers</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Secretaries</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Chiefs</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Dept Heads</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -559,25 +564,25 @@
         <v>-0.07315691194327432</v>
       </c>
       <c r="H2" t="n">
+        <v>-0.00140411286180284</v>
+      </c>
+      <c r="I2" t="n">
         <v>19</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -589,12 +594,15 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -633,42 +641,45 @@
         <v>-0.05053339391896839</v>
       </c>
       <c r="H3" t="n">
+        <v>-0.0009083393454908903</v>
+      </c>
+      <c r="I3" t="n">
         <v>18</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>1</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -707,42 +718,45 @@
         <v>-0.7630106113784501</v>
       </c>
       <c r="H4" t="n">
+        <v>-0.01673706189621512</v>
+      </c>
+      <c r="I4" t="n">
         <v>17</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>1</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -781,37 +795,37 @@
         <v>-0.5778520470336813</v>
       </c>
       <c r="H5" t="n">
+        <v>-0.01217701267556888</v>
+      </c>
+      <c r="I5" t="n">
         <v>18</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -819,6 +833,9 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -855,42 +872,45 @@
         <v>-1.591651563740375</v>
       </c>
       <c r="H6" t="n">
+        <v>-0.03751153923571418</v>
+      </c>
+      <c r="I6" t="n">
         <v>19</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -929,34 +949,34 @@
         <v>-0.5327190561846336</v>
       </c>
       <c r="H7" t="n">
+        <v>-0.01076681958717725</v>
+      </c>
+      <c r="I7" t="n">
         <v>15</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -965,6 +985,9 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,19 +1026,19 @@
         <v>6.451324737832136</v>
       </c>
       <c r="H8" t="n">
+        <v>0.1116793924151709</v>
+      </c>
+      <c r="I8" t="n">
         <v>16</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1024,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1039,6 +1062,9 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1077,34 +1103,34 @@
         <v>0.717538809957398</v>
       </c>
       <c r="H9" t="n">
+        <v>0.01445040997835444</v>
+      </c>
+      <c r="I9" t="n">
         <v>16</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1113,6 +1139,9 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1151,34 +1180,34 @@
         <v>-0.699789023367669</v>
       </c>
       <c r="H10" t="n">
+        <v>-0.01558611493755775</v>
+      </c>
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1187,6 +1216,9 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,103 +1642,106 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Net Income / Total Revenue Index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.00140411286180284</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0009083393454908903</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.01673706189621512</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.01217701267556888</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.03751153923571418</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.01076681958717725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1116793924151709</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01445040997835444</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.01558611493755775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Total Reported Employees</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>18</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>19</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>16</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAURIE LESHIN</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRESIDENT (THRU 05/2022)</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>President</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1905265</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100018</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2005283</v>
+          <t>Title Group</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Base Compensation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Other Comp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Total Comp</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1717,27 +1752,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WINSTON SOBOYEJO</t>
+          <t>LAURIE LESHIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROVOST (THRU 05/22)/INTERIM. PRES.</t>
+          <t>PRESIDENT (THRU 05/2022)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>564121</v>
+        <v>1905265</v>
       </c>
       <c r="F13" t="n">
-        <v>104990</v>
+        <v>100018</v>
       </c>
       <c r="G13" t="n">
-        <v>669111</v>
+        <v>2005283</v>
       </c>
     </row>
     <row r="14">
@@ -1748,27 +1783,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JEFFREY SOLOMON</t>
+          <t>WINSTON SOBOYEJO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TREAS, EXEC VP, CFO (THRU 08/21)</t>
+          <t>PROVOST (THRU 05/22)/INTERIM. PRES.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>738198</v>
+        <v>564121</v>
       </c>
       <c r="F14" t="n">
-        <v>43552</v>
+        <v>104990</v>
       </c>
       <c r="G14" t="n">
-        <v>781750</v>
+        <v>669111</v>
       </c>
     </row>
     <row r="15">
@@ -1779,27 +1814,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAVID BUNIS</t>
+          <t>JEFFREY SOLOMON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SECRETARY &amp; GENERAL COUNSEL</t>
+          <t>TREAS, EXEC VP, CFO (THRU 08/21)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>608493</v>
+        <v>738198</v>
       </c>
       <c r="F15" t="n">
-        <v>29511</v>
+        <v>43552</v>
       </c>
       <c r="G15" t="n">
-        <v>638004</v>
+        <v>781750</v>
       </c>
     </row>
     <row r="16">
@@ -1810,27 +1845,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MICHAEL HORAN</t>
+          <t>DAVID BUNIS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TREAS, EXEC VP, CFO (AS OF 08/21)</t>
+          <t>SECRETARY &amp; GENERAL COUNSEL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Secretary</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>194712</v>
+        <v>608493</v>
       </c>
       <c r="F16" t="n">
-        <v>22211</v>
+        <v>29511</v>
       </c>
       <c r="G16" t="n">
-        <v>216923</v>
+        <v>638004</v>
       </c>
     </row>
     <row r="17">
@@ -1841,27 +1876,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PATRICK HITCHCOCK</t>
+          <t>MICHAEL HORAN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASSOC TREAS&amp;CONTROLLER (THRU 01/22)</t>
+          <t>TREAS, EXEC VP, CFO (AS OF 08/21)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>148280</v>
+        <v>194712</v>
       </c>
       <c r="F17" t="n">
-        <v>39042</v>
+        <v>22211</v>
       </c>
       <c r="G17" t="n">
-        <v>187322</v>
+        <v>216923</v>
       </c>
     </row>
     <row r="18">
@@ -1872,27 +1907,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KYLE SIEGEL</t>
+          <t>PATRICK HITCHCOCK</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASST. SECRETARY &amp; EXEC. DIR.</t>
+          <t>ASSOC TREAS&amp;CONTROLLER (THRU 01/22)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Exec</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>115431</v>
+        <v>148280</v>
       </c>
       <c r="F18" t="n">
-        <v>29818</v>
+        <v>39042</v>
       </c>
       <c r="G18" t="n">
-        <v>145249</v>
+        <v>187322</v>
       </c>
     </row>
     <row r="19">
@@ -1903,27 +1938,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHILIP CLAY</t>
+          <t>KYLE SIEGEL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VP STUDENT AFFAIRS</t>
+          <t>ASST. SECRETARY &amp; EXEC. DIR.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Exec</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>417975</v>
+        <v>115431</v>
       </c>
       <c r="F19" t="n">
-        <v>35744</v>
+        <v>29818</v>
       </c>
       <c r="G19" t="n">
-        <v>453719</v>
+        <v>145249</v>
       </c>
     </row>
     <row r="20">
@@ -1934,12 +1969,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AMY MORTON</t>
+          <t>PHILIP CLAY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VP AND CHIEF OF STAFF</t>
+          <t>VP STUDENT AFFAIRS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1948,13 +1983,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>397411</v>
+        <v>417975</v>
       </c>
       <c r="F20" t="n">
-        <v>46062</v>
+        <v>35744</v>
       </c>
       <c r="G20" t="n">
-        <v>443473</v>
+        <v>453719</v>
       </c>
     </row>
     <row r="21">
@@ -1965,27 +2000,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARTHUR HEINRICHER</t>
+          <t>AMY MORTON</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INTERIM PROVOST (AS OF 05/2022)</t>
+          <t>VP AND CHIEF OF STAFF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>243521</v>
+        <v>397411</v>
       </c>
       <c r="F21" t="n">
-        <v>28716</v>
+        <v>46062</v>
       </c>
       <c r="G21" t="n">
-        <v>272237</v>
+        <v>443473</v>
       </c>
     </row>
     <row r="22">
@@ -1996,27 +2031,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JEAN KING</t>
+          <t>ARTHUR HEINRICHER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DEAN OF ARTS &amp; SCIENCES</t>
+          <t>INTERIM PROVOST (AS OF 05/2022)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>369685</v>
+        <v>243521</v>
       </c>
       <c r="F22" t="n">
-        <v>49092</v>
+        <v>28716</v>
       </c>
       <c r="G22" t="n">
-        <v>418777</v>
+        <v>272237</v>
       </c>
     </row>
     <row r="23">
@@ -2027,27 +2062,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DONNA STOCK</t>
+          <t>JEAN KING</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VP UNIVERSITY ADVANCEMENT</t>
+          <t>DEAN OF ARTS &amp; SCIENCES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>344649</v>
+        <v>369685</v>
       </c>
       <c r="F23" t="n">
-        <v>49097</v>
+        <v>49092</v>
       </c>
       <c r="G23" t="n">
-        <v>393746</v>
+        <v>418777</v>
       </c>
     </row>
     <row r="24">
@@ -2058,27 +2093,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JAMAL YAGOOBI</t>
+          <t>DONNA STOCK</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DEPT HEAD MECHANICAL ENG</t>
+          <t>VP UNIVERSITY ADVANCEMENT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dept Head</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>334930</v>
+        <v>344649</v>
       </c>
       <c r="F24" t="n">
-        <v>58096</v>
+        <v>49097</v>
       </c>
       <c r="G24" t="n">
-        <v>393026</v>
+        <v>393746</v>
       </c>
     </row>
     <row r="25">
@@ -2089,27 +2124,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOHN MCNEIL</t>
+          <t>JAMAL YAGOOBI</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEAN OF ENGINEERING</t>
+          <t>DEPT HEAD MECHANICAL ENG</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Dept Head</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>334498</v>
+        <v>334930</v>
       </c>
       <c r="F25" t="n">
-        <v>50587</v>
+        <v>58096</v>
       </c>
       <c r="G25" t="n">
-        <v>385085</v>
+        <v>393026</v>
       </c>
     </row>
     <row r="26">
@@ -2120,27 +2155,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOGDAN VERNESCU</t>
+          <t>JOHN MCNEIL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VICE PROVOST RESEARCH</t>
+          <t>DEAN OF ENGINEERING</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Vice Provost</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>345675</v>
+        <v>334498</v>
       </c>
       <c r="F26" t="n">
-        <v>36390</v>
+        <v>50587</v>
       </c>
       <c r="G26" t="n">
-        <v>382065</v>
+        <v>385085</v>
       </c>
     </row>
     <row r="27">
@@ -2151,27 +2186,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>STEPHANIE PASHA</t>
+          <t>BOGDAN VERNESCU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FORMER AVP &amp; CHIEF OF STAFF</t>
+          <t>VICE PROVOST RESEARCH</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Vice Provost</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>152911</v>
+        <v>345675</v>
       </c>
       <c r="F27" t="n">
-        <v>21839</v>
+        <v>36390</v>
       </c>
       <c r="G27" t="n">
-        <v>174750</v>
+        <v>382065</v>
       </c>
     </row>
     <row r="28">
@@ -2182,27 +2217,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRUCE BURSTEN</t>
+          <t>STEPHANIE PASHA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHEMISTRY PROFESSOR</t>
+          <t>FORMER AVP &amp; CHIEF OF STAFF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>201545</v>
+        <v>152911</v>
       </c>
       <c r="F28" t="n">
-        <v>27187</v>
+        <v>21839</v>
       </c>
       <c r="G28" t="n">
-        <v>228732</v>
+        <v>174750</v>
       </c>
     </row>
     <row r="29">
@@ -2213,27 +2248,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MICHELLE JONES-JOHNSON</t>
+          <t>BRUCE BURSTEN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FORMER VP FOR TALENT DEV/CDO</t>
+          <t>CHEMISTRY PROFESSOR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>105973</v>
+        <v>201545</v>
       </c>
       <c r="F29" t="n">
-        <v>12871</v>
+        <v>27187</v>
       </c>
       <c r="G29" t="n">
-        <v>118844</v>
+        <v>228732</v>
       </c>
     </row>
     <row r="30">
@@ -2244,12 +2279,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WILLIAM MCAVOY</t>
+          <t>MICHELLE JONES-JOHNSON</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FORMER VP UNIVERSITY ADVANCEMENT</t>
+          <t>FORMER VP FOR TALENT DEV/CDO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2258,44 +2293,44 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>230400</v>
+        <v>105973</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>12871</v>
       </c>
       <c r="G30" t="n">
-        <v>230400</v>
+        <v>118844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAURIE LESHIN</t>
+          <t>WILLIAM MCAVOY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRESIDENT</t>
+          <t>FORMER VP UNIVERSITY ADVANCEMENT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>990672</v>
+        <v>230400</v>
       </c>
       <c r="F31" t="n">
-        <v>163219</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1153891</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="32">
@@ -2306,27 +2341,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JEFFREY SOLOMON</t>
+          <t>LAURIE LESHIN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TREASURER, EXECUTIVE VP, CFO</t>
+          <t>PRESIDENT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>493020</v>
+        <v>990672</v>
       </c>
       <c r="F32" t="n">
-        <v>59483</v>
+        <v>163219</v>
       </c>
       <c r="G32" t="n">
-        <v>552503</v>
+        <v>1153891</v>
       </c>
     </row>
     <row r="33">
@@ -2337,27 +2372,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DAVID BUNIS</t>
+          <t>JEFFREY SOLOMON</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SECRETARY &amp; GENERAL COUNSEL</t>
+          <t>TREASURER, EXECUTIVE VP, CFO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>449315</v>
+        <v>493020</v>
       </c>
       <c r="F33" t="n">
-        <v>34046</v>
+        <v>59483</v>
       </c>
       <c r="G33" t="n">
-        <v>483361</v>
+        <v>552503</v>
       </c>
     </row>
     <row r="34">
@@ -2368,27 +2403,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PATRICK HITCHCOCK</t>
+          <t>DAVID BUNIS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ASSOC TREASURER &amp; CONTROLLER</t>
+          <t>SECRETARY &amp; GENERAL COUNSEL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Secretary</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>141207</v>
+        <v>449315</v>
       </c>
       <c r="F34" t="n">
-        <v>40761</v>
+        <v>34046</v>
       </c>
       <c r="G34" t="n">
-        <v>181968</v>
+        <v>483361</v>
       </c>
     </row>
     <row r="35">
@@ -2399,27 +2434,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KYLE SIEGEL</t>
+          <t>PATRICK HITCHCOCK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ASST. SECRETARY &amp; EXEC. DIR.</t>
+          <t>ASSOC TREASURER &amp; CONTROLLER</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Exec</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>104365</v>
+        <v>141207</v>
       </c>
       <c r="F35" t="n">
-        <v>31414</v>
+        <v>40761</v>
       </c>
       <c r="G35" t="n">
-        <v>135779</v>
+        <v>181968</v>
       </c>
     </row>
     <row r="36">
@@ -2430,27 +2465,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WINSTON SOBOYEJO</t>
+          <t>KYLE SIEGEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PROVOST</t>
+          <t>ASST. SECRETARY &amp; EXEC. DIR.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Exec</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>443922</v>
+        <v>104365</v>
       </c>
       <c r="F36" t="n">
-        <v>110473</v>
+        <v>31414</v>
       </c>
       <c r="G36" t="n">
-        <v>554395</v>
+        <v>135779</v>
       </c>
     </row>
     <row r="37">
@@ -2461,27 +2496,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PHILIP CLAY</t>
+          <t>WINSTON SOBOYEJO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VP STUDENT AFFAIRS</t>
+          <t>PROVOST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>307518</v>
+        <v>443922</v>
       </c>
       <c r="F37" t="n">
-        <v>37402</v>
+        <v>110473</v>
       </c>
       <c r="G37" t="n">
-        <v>344920</v>
+        <v>554395</v>
       </c>
     </row>
     <row r="38">
@@ -2492,12 +2527,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMY MORTON</t>
+          <t>PHILIP CLAY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VP AND CHIEF OF STAFF</t>
+          <t>VP STUDENT AFFAIRS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2506,13 +2541,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>273603</v>
+        <v>307518</v>
       </c>
       <c r="F38" t="n">
-        <v>48024</v>
+        <v>37402</v>
       </c>
       <c r="G38" t="n">
-        <v>321627</v>
+        <v>344920</v>
       </c>
     </row>
     <row r="39">
@@ -2523,27 +2558,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NIKOLAS GATSONIS</t>
+          <t>AMY MORTON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PROF&amp;DEPT HEAD AEROSPACE ENGINEERING</t>
+          <t>VP AND CHIEF OF STAFF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>251454</v>
+        <v>273603</v>
       </c>
       <c r="F39" t="n">
-        <v>134616</v>
+        <v>48024</v>
       </c>
       <c r="G39" t="n">
-        <v>386070</v>
+        <v>321627</v>
       </c>
     </row>
     <row r="40">
@@ -2554,27 +2589,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WILLIAM MCAVOY</t>
+          <t>NIKOLAS GATSONIS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VP UNIVERSITY ADVANCEMENT</t>
+          <t>PROF&amp;DEPT HEAD AEROSPACE ENGINEERING</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>571124</v>
+        <v>251454</v>
       </c>
       <c r="F40" t="n">
-        <v>46791</v>
+        <v>134616</v>
       </c>
       <c r="G40" t="n">
-        <v>617915</v>
+        <v>386070</v>
       </c>
     </row>
     <row r="41">
@@ -2585,27 +2620,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JEAN KING</t>
+          <t>WILLIAM MCAVOY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DEAN OF ARTS &amp; SCIENCES</t>
+          <t>VP UNIVERSITY ADVANCEMENT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>349395</v>
+        <v>571124</v>
       </c>
       <c r="F41" t="n">
-        <v>53323</v>
+        <v>46791</v>
       </c>
       <c r="G41" t="n">
-        <v>402718</v>
+        <v>617915</v>
       </c>
     </row>
     <row r="42">
@@ -2616,27 +2651,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JAMAL YAGOOBI</t>
+          <t>JEAN KING</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DEPT HEAD MECHANICAL ENG</t>
+          <t>DEAN OF ARTS &amp; SCIENCES</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dept Head</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>353091</v>
+        <v>349395</v>
       </c>
       <c r="F42" t="n">
-        <v>61668</v>
+        <v>53323</v>
       </c>
       <c r="G42" t="n">
-        <v>414759</v>
+        <v>402718</v>
       </c>
     </row>
     <row r="43">
@@ -2647,27 +2682,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BRAJENDRA MISHRA</t>
+          <t>JAMAL YAGOOBI</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PROFESSOR - MECHANICAL ENG</t>
+          <t>DEPT HEAD MECHANICAL ENG</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dept Head</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>330984</v>
+        <v>353091</v>
       </c>
       <c r="F43" t="n">
-        <v>52757</v>
+        <v>61668</v>
       </c>
       <c r="G43" t="n">
-        <v>383741</v>
+        <v>414759</v>
       </c>
     </row>
     <row r="44">
@@ -2678,27 +2713,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>STEPHEN FLAVIN</t>
+          <t>BRAJENDRA MISHRA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FORMER VP ACAD &amp; CORP DEV</t>
+          <t>PROFESSOR - MECHANICAL ENG</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>207747</v>
+        <v>330984</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>52757</v>
       </c>
       <c r="G44" t="n">
-        <v>207747</v>
+        <v>383741</v>
       </c>
     </row>
     <row r="45">
@@ -2709,27 +2744,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BRUCE BURSTEN</t>
+          <t>STEPHEN FLAVIN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CHEMISTRY PROFESSOR</t>
+          <t>FORMER VP ACAD &amp; CORP DEV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>241007</v>
+        <v>207747</v>
       </c>
       <c r="F45" t="n">
-        <v>29179</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>270186</v>
+        <v>207747</v>
       </c>
     </row>
     <row r="46">
@@ -2740,27 +2775,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MICHELLE JONES-JOHNSON</t>
+          <t>BRUCE BURSTEN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VP FOR TALENT DEVELOPMENT/CDO</t>
+          <t>CHEMISTRY PROFESSOR</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>281294</v>
+        <v>241007</v>
       </c>
       <c r="F46" t="n">
-        <v>51105</v>
+        <v>29179</v>
       </c>
       <c r="G46" t="n">
-        <v>332399</v>
+        <v>270186</v>
       </c>
     </row>
     <row r="47">
@@ -2771,12 +2806,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>STEPHANIE PASHA</t>
+          <t>MICHELLE JONES-JOHNSON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FORMER AVP &amp; CHIEF OF STAFF</t>
+          <t>VP FOR TALENT DEVELOPMENT/CDO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2785,13 +2820,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>142534</v>
+        <v>281294</v>
       </c>
       <c r="F47" t="n">
-        <v>23027</v>
+        <v>51105</v>
       </c>
       <c r="G47" t="n">
-        <v>165561</v>
+        <v>332399</v>
       </c>
     </row>
     <row r="48">
@@ -2802,12 +2837,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KRISTIN TICHENOR</t>
+          <t>STEPHANIE PASHA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FORMER SVP ENROL MGMT</t>
+          <t>FORMER AVP &amp; CHIEF OF STAFF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2816,44 +2851,44 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>247272</v>
+        <v>142534</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>23027</v>
       </c>
       <c r="G48" t="n">
-        <v>247272</v>
+        <v>165561</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>KRISTIN TICHENOR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>FORMER SVP ENROL MGMT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1206233</v>
+        <v>247272</v>
       </c>
       <c r="F49" t="n">
-        <v>324332</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1530565</v>
+        <v>247272</v>
       </c>
     </row>
     <row r="50">
@@ -2864,27 +2899,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VP Acad &amp; Corp Dev(thru 10/19)</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>729114</v>
+        <v>1206233</v>
       </c>
       <c r="F50" t="n">
-        <v>105100</v>
+        <v>324332</v>
       </c>
       <c r="G50" t="n">
-        <v>834214</v>
+        <v>1530565</v>
       </c>
     </row>
     <row r="51">
@@ -2895,12 +2930,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>kristin tichenor</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SVP Enrol mgmt (thru 10/19)</t>
+          <t>VP Acad &amp; Corp Dev(thru 10/19)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2909,13 +2944,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>577847</v>
+        <v>729114</v>
       </c>
       <c r="F51" t="n">
-        <v>99467</v>
+        <v>105100</v>
       </c>
       <c r="G51" t="n">
-        <v>677314</v>
+        <v>834214</v>
       </c>
     </row>
     <row r="52">
@@ -2926,12 +2961,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>kristin tichenor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Treasurer, Executive vp, CFO</t>
+          <t>SVP Enrol mgmt (thru 10/19)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2940,13 +2975,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>543383</v>
+        <v>577847</v>
       </c>
       <c r="F52" t="n">
-        <v>133291</v>
+        <v>99467</v>
       </c>
       <c r="G52" t="n">
-        <v>676674</v>
+        <v>677314</v>
       </c>
     </row>
     <row r="53">
@@ -2957,27 +2992,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Winston Soboyejo</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Treasurer, Executive vp, CFO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>434964</v>
+        <v>543383</v>
       </c>
       <c r="F53" t="n">
-        <v>166029</v>
+        <v>133291</v>
       </c>
       <c r="G53" t="n">
-        <v>600993</v>
+        <v>676674</v>
       </c>
     </row>
     <row r="54">
@@ -2988,27 +3023,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Winston Soboyejo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VP University advancement</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>430777</v>
+        <v>434964</v>
       </c>
       <c r="F54" t="n">
-        <v>113064</v>
+        <v>166029</v>
       </c>
       <c r="G54" t="n">
-        <v>543841</v>
+        <v>600993</v>
       </c>
     </row>
     <row r="55">
@@ -3019,27 +3054,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>David Bunis</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Secretary &amp; General Counsel</t>
+          <t>VP University advancement</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>428313</v>
+        <v>430777</v>
       </c>
       <c r="F55" t="n">
-        <v>102274</v>
+        <v>113064</v>
       </c>
       <c r="G55" t="n">
-        <v>530587</v>
+        <v>543841</v>
       </c>
     </row>
     <row r="56">
@@ -3050,27 +3085,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bruce Bursten</t>
+          <t>David Bunis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Chemistry Professor</t>
+          <t>Secretary &amp; General Counsel</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Secretary</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>361437</v>
+        <v>428313</v>
       </c>
       <c r="F56" t="n">
-        <v>40348</v>
+        <v>102274</v>
       </c>
       <c r="G56" t="n">
-        <v>401785</v>
+        <v>530587</v>
       </c>
     </row>
     <row r="57">
@@ -3081,27 +3116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jean King</t>
+          <t>Bruce Bursten</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dean of Arts &amp; Sciences</t>
+          <t>Chemistry Professor</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>345555</v>
+        <v>361437</v>
       </c>
       <c r="F57" t="n">
-        <v>53592</v>
+        <v>40348</v>
       </c>
       <c r="G57" t="n">
-        <v>399147</v>
+        <v>401785</v>
       </c>
     </row>
     <row r="58">
@@ -3112,27 +3147,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jamal Yagoobi</t>
+          <t>Jean King</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dept Head Mechanical Eng</t>
+          <t>Dean of Arts &amp; Sciences</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dept Head</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>325994</v>
+        <v>345555</v>
       </c>
       <c r="F58" t="n">
-        <v>61970</v>
+        <v>53592</v>
       </c>
       <c r="G58" t="n">
-        <v>387964</v>
+        <v>399147</v>
       </c>
     </row>
     <row r="59">
@@ -3143,27 +3178,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Reinhold Ludwig</t>
+          <t>Jamal Yagoobi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Professor - E&amp;C Engineering</t>
+          <t>Dept Head Mechanical Eng</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dept Head</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>317486</v>
+        <v>325994</v>
       </c>
       <c r="F59" t="n">
-        <v>56468</v>
+        <v>61970</v>
       </c>
       <c r="G59" t="n">
-        <v>373954</v>
+        <v>387964</v>
       </c>
     </row>
     <row r="60">
@@ -3174,27 +3209,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Michelle Jones-Johnson</t>
+          <t>Reinhold Ludwig</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VP for Talent development/cdo</t>
+          <t>Professor - E&amp;C Engineering</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>264231</v>
+        <v>317486</v>
       </c>
       <c r="F60" t="n">
-        <v>80711</v>
+        <v>56468</v>
       </c>
       <c r="G60" t="n">
-        <v>344942</v>
+        <v>373954</v>
       </c>
     </row>
     <row r="61">
@@ -3205,12 +3240,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Philip Clay</t>
+          <t>Michelle Jones-Johnson</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VP Student Affairs</t>
+          <t>VP for Talent development/cdo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3219,13 +3254,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>277099</v>
+        <v>264231</v>
       </c>
       <c r="F61" t="n">
-        <v>66419</v>
+        <v>80711</v>
       </c>
       <c r="G61" t="n">
-        <v>343518</v>
+        <v>344942</v>
       </c>
     </row>
     <row r="62">
@@ -3236,12 +3271,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Amy Morton</t>
+          <t>Philip Clay</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>VP and Chief of Staff</t>
+          <t>VP Student Affairs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3250,13 +3285,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>235966</v>
+        <v>277099</v>
       </c>
       <c r="F62" t="n">
-        <v>74984</v>
+        <v>66419</v>
       </c>
       <c r="G62" t="n">
-        <v>310950</v>
+        <v>343518</v>
       </c>
     </row>
     <row r="63">
@@ -3267,27 +3302,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Patrick Hitchcock</t>
+          <t>Amy Morton</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Assoc Treasurer &amp; Controller</t>
+          <t>VP and Chief of Staff</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>137798</v>
+        <v>235966</v>
       </c>
       <c r="F63" t="n">
-        <v>40555</v>
+        <v>74984</v>
       </c>
       <c r="G63" t="n">
-        <v>178353</v>
+        <v>310950</v>
       </c>
     </row>
     <row r="64">
@@ -3298,27 +3333,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>Patrick Hitchcock</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>former avp &amp; chief of staff</t>
+          <t>Assoc Treasurer &amp; Controller</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>140728</v>
+        <v>137798</v>
       </c>
       <c r="F64" t="n">
-        <v>24228</v>
+        <v>40555</v>
       </c>
       <c r="G64" t="n">
-        <v>164956</v>
+        <v>178353</v>
       </c>
     </row>
     <row r="65">
@@ -3329,58 +3364,58 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kyle Siegel</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Asst. Secretary &amp; exec. Dir.</t>
+          <t>former avp &amp; chief of staff</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Exec</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>103605</v>
+        <v>140728</v>
       </c>
       <c r="F65" t="n">
-        <v>30792</v>
+        <v>24228</v>
       </c>
       <c r="G65" t="n">
-        <v>134397</v>
+        <v>164956</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>Kyle Siegel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Asst. Secretary &amp; exec. Dir.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Exec</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>987687</v>
+        <v>103605</v>
       </c>
       <c r="F66" t="n">
-        <v>311816</v>
+        <v>30792</v>
       </c>
       <c r="G66" t="n">
-        <v>1299503</v>
+        <v>134397</v>
       </c>
     </row>
     <row r="67">
@@ -3391,27 +3426,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>518642</v>
+        <v>987687</v>
       </c>
       <c r="F67" t="n">
-        <v>118838</v>
+        <v>311816</v>
       </c>
       <c r="G67" t="n">
-        <v>637480</v>
+        <v>1299503</v>
       </c>
     </row>
     <row r="68">
@@ -3422,27 +3457,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>David Bunis</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SECRETARY &amp; GENERAL COUNSEL</t>
+          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>405313</v>
+        <v>518642</v>
       </c>
       <c r="F68" t="n">
-        <v>96715</v>
+        <v>118838</v>
       </c>
       <c r="G68" t="n">
-        <v>502028</v>
+        <v>637480</v>
       </c>
     </row>
     <row r="69">
@@ -3453,27 +3488,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Patrick Hitchcock</t>
+          <t>David Bunis</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Assoc Treasurer &amp; Controller</t>
+          <t>SECRETARY &amp; GENERAL COUNSEL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Secretary</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>151624</v>
+        <v>405313</v>
       </c>
       <c r="F69" t="n">
-        <v>7357</v>
+        <v>96715</v>
       </c>
       <c r="G69" t="n">
-        <v>158981</v>
+        <v>502028</v>
       </c>
     </row>
     <row r="70">
@@ -3484,27 +3519,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Kyle Siegel</t>
+          <t>Patrick Hitchcock</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Asst. Secretary &amp; Exec. Dir.</t>
+          <t>Assoc Treasurer &amp; Controller</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Exec</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100142</v>
+        <v>151624</v>
       </c>
       <c r="F70" t="n">
-        <v>30387</v>
+        <v>7357</v>
       </c>
       <c r="G70" t="n">
-        <v>130529</v>
+        <v>158981</v>
       </c>
     </row>
     <row r="71">
@@ -3515,27 +3550,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bruce Bursten</t>
+          <t>Kyle Siegel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Provost, SVP, Acad Affairs</t>
+          <t>Asst. Secretary &amp; Exec. Dir.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Exec</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>399771</v>
+        <v>100142</v>
       </c>
       <c r="F71" t="n">
-        <v>39879</v>
+        <v>30387</v>
       </c>
       <c r="G71" t="n">
-        <v>439650</v>
+        <v>130529</v>
       </c>
     </row>
     <row r="72">
@@ -3546,27 +3581,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Bruce Bursten</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VP Academic &amp; Corporate Dev</t>
+          <t>Provost, SVP, Acad Affairs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>452307</v>
+        <v>399771</v>
       </c>
       <c r="F72" t="n">
-        <v>156808</v>
+        <v>39879</v>
       </c>
       <c r="G72" t="n">
-        <v>609115</v>
+        <v>439650</v>
       </c>
     </row>
     <row r="73">
@@ -3577,12 +3612,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SVP Enrollment Management</t>
+          <t>VP Academic &amp; Corporate Dev</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3591,13 +3626,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>407741</v>
+        <v>452307</v>
       </c>
       <c r="F73" t="n">
-        <v>118773</v>
+        <v>156808</v>
       </c>
       <c r="G73" t="n">
-        <v>526514</v>
+        <v>609115</v>
       </c>
     </row>
     <row r="74">
@@ -3608,12 +3643,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amy Morton</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>VP and Chief of Staff</t>
+          <t>SVP Enrollment Management</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3622,13 +3657,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>225466</v>
+        <v>407741</v>
       </c>
       <c r="F74" t="n">
-        <v>71660</v>
+        <v>118773</v>
       </c>
       <c r="G74" t="n">
-        <v>297126</v>
+        <v>526514</v>
       </c>
     </row>
     <row r="75">
@@ -3639,27 +3674,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Winston Soboyejo</t>
+          <t>Amy Morton</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Interim Provost</t>
+          <t>VP and Chief of Staff</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>281193</v>
+        <v>225466</v>
       </c>
       <c r="F75" t="n">
-        <v>65137</v>
+        <v>71660</v>
       </c>
       <c r="G75" t="n">
-        <v>346330</v>
+        <v>297126</v>
       </c>
     </row>
     <row r="76">
@@ -3670,27 +3705,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jean King</t>
+          <t>Winston Soboyejo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dean of Arts &amp; Sciences</t>
+          <t>Interim Provost</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>336315</v>
+        <v>281193</v>
       </c>
       <c r="F76" t="n">
-        <v>52839</v>
+        <v>65137</v>
       </c>
       <c r="G76" t="n">
-        <v>389154</v>
+        <v>346330</v>
       </c>
     </row>
     <row r="77">
@@ -3701,27 +3736,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Jean King</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>VP University Advancement</t>
+          <t>Dean of Arts &amp; Sciences</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>395057</v>
+        <v>336315</v>
       </c>
       <c r="F77" t="n">
-        <v>102898</v>
+        <v>52839</v>
       </c>
       <c r="G77" t="n">
-        <v>497955</v>
+        <v>389154</v>
       </c>
     </row>
     <row r="78">
@@ -3732,27 +3767,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Karen Oates</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Prof Biology &amp; Biotechnology</t>
+          <t>VP University Advancement</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>334512</v>
+        <v>395057</v>
       </c>
       <c r="F78" t="n">
-        <v>39879</v>
+        <v>102898</v>
       </c>
       <c r="G78" t="n">
-        <v>374391</v>
+        <v>497955</v>
       </c>
     </row>
     <row r="79">
@@ -3763,27 +3798,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Michael Ginzberg</t>
+          <t>Karen Oates</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dean Foisie Business School</t>
+          <t>Prof Biology &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>407647</v>
+        <v>334512</v>
       </c>
       <c r="F79" t="n">
-        <v>52832</v>
+        <v>39879</v>
       </c>
       <c r="G79" t="n">
-        <v>460479</v>
+        <v>374391</v>
       </c>
     </row>
     <row r="80">
@@ -3794,27 +3829,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Michael Ginzberg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Prof Mechanical Engineering</t>
+          <t>Dean Foisie Business School</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>370680</v>
+        <v>407647</v>
       </c>
       <c r="F80" t="n">
-        <v>58880</v>
+        <v>52832</v>
       </c>
       <c r="G80" t="n">
-        <v>429560</v>
+        <v>460479</v>
       </c>
     </row>
     <row r="81">
@@ -3825,27 +3860,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Former AVP &amp; Chief of Staff</t>
+          <t>Prof Mechanical Engineering</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>137769</v>
+        <v>370680</v>
       </c>
       <c r="F81" t="n">
-        <v>23887</v>
+        <v>58880</v>
       </c>
       <c r="G81" t="n">
-        <v>161656</v>
+        <v>429560</v>
       </c>
     </row>
     <row r="82">
@@ -3856,12 +3891,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Philip Clay</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VP Student Affairs</t>
+          <t>Former AVP &amp; Chief of Staff</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3870,13 +3905,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>228584</v>
+        <v>137769</v>
       </c>
       <c r="F82" t="n">
-        <v>62050</v>
+        <v>23887</v>
       </c>
       <c r="G82" t="n">
-        <v>290634</v>
+        <v>161656</v>
       </c>
     </row>
     <row r="83">
@@ -3887,12 +3922,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Michelle Jones-Johnson</t>
+          <t>Philip Clay</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VP FOR TALENT DEVELOPMENT/CDO</t>
+          <t>VP Student Affairs</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3901,44 +3936,44 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>254231</v>
+        <v>228584</v>
       </c>
       <c r="F83" t="n">
-        <v>78311</v>
+        <v>62050</v>
       </c>
       <c r="G83" t="n">
-        <v>332542</v>
+        <v>290634</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>Michelle Jones-Johnson</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>VP FOR TALENT DEVELOPMENT/CDO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>876508</v>
+        <v>254231</v>
       </c>
       <c r="F84" t="n">
-        <v>292929</v>
+        <v>78311</v>
       </c>
       <c r="G84" t="n">
-        <v>1169437</v>
+        <v>332542</v>
       </c>
     </row>
     <row r="85">
@@ -3949,27 +3984,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>496761</v>
+        <v>876508</v>
       </c>
       <c r="F85" t="n">
-        <v>118706</v>
+        <v>292929</v>
       </c>
       <c r="G85" t="n">
-        <v>615467</v>
+        <v>1169437</v>
       </c>
     </row>
     <row r="86">
@@ -3980,27 +4015,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>David Bunis</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>secretary &amp; GENERAL COUNSEL</t>
+          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>408130</v>
+        <v>496761</v>
       </c>
       <c r="F86" t="n">
-        <v>58253</v>
+        <v>118706</v>
       </c>
       <c r="G86" t="n">
-        <v>466383</v>
+        <v>615467</v>
       </c>
     </row>
     <row r="87">
@@ -4011,27 +4046,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Patrick Hitchcockas of 0717</t>
+          <t>David Bunis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Assoc Treasurer &amp; controller</t>
+          <t>secretary &amp; GENERAL COUNSEL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Secretary</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>60170</v>
+        <v>408130</v>
       </c>
       <c r="F87" t="n">
-        <v>280</v>
+        <v>58253</v>
       </c>
       <c r="G87" t="n">
-        <v>60450</v>
+        <v>466383</v>
       </c>
     </row>
     <row r="88">
@@ -4042,27 +4077,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KYLE SIEGEL as of 0917</t>
+          <t>Patrick Hitchcockas of 0717</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ASSt. SECRETARY &amp; exec. dir.</t>
+          <t>Assoc Treasurer &amp; controller</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Exec</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27796</v>
+        <v>60170</v>
       </c>
       <c r="F88" t="n">
-        <v>5893</v>
+        <v>280</v>
       </c>
       <c r="G88" t="n">
-        <v>33689</v>
+        <v>60450</v>
       </c>
     </row>
     <row r="89">
@@ -4073,27 +4108,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bruce Bursten</t>
+          <t>KYLE SIEGEL as of 0917</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Provost, SVP, Acad Affairs</t>
+          <t>ASSt. SECRETARY &amp; exec. dir.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Exec</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>394072</v>
+        <v>27796</v>
       </c>
       <c r="F89" t="n">
-        <v>77715</v>
+        <v>5893</v>
       </c>
       <c r="G89" t="n">
-        <v>471787</v>
+        <v>33689</v>
       </c>
     </row>
     <row r="90">
@@ -4104,27 +4139,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Philip Clay</t>
+          <t>Bruce Bursten</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VP STUDENT AFFAIRS</t>
+          <t>Provost, SVP, Acad Affairs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220253</v>
+        <v>394072</v>
       </c>
       <c r="F90" t="n">
-        <v>60658</v>
+        <v>77715</v>
       </c>
       <c r="G90" t="n">
-        <v>280911</v>
+        <v>471787</v>
       </c>
     </row>
     <row r="91">
@@ -4135,12 +4170,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Philip Clay</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VP ACADEMIC &amp; CORPORATE DEV</t>
+          <t>VP STUDENT AFFAIRS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4149,13 +4184,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>466972</v>
+        <v>220253</v>
       </c>
       <c r="F91" t="n">
-        <v>163264</v>
+        <v>60658</v>
       </c>
       <c r="G91" t="n">
-        <v>630236</v>
+        <v>280911</v>
       </c>
     </row>
     <row r="92">
@@ -4166,12 +4201,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VP UNIVERSITY ADVANCEMENT</t>
+          <t>VP ACADEMIC &amp; CORPORATE DEV</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4180,13 +4215,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>380142</v>
+        <v>466972</v>
       </c>
       <c r="F92" t="n">
-        <v>99813</v>
+        <v>163264</v>
       </c>
       <c r="G92" t="n">
-        <v>479955</v>
+        <v>630236</v>
       </c>
     </row>
     <row r="93">
@@ -4197,12 +4232,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SVP Enrollment Management</t>
+          <t>VP UNIVERSITY ADVANCEMENT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4211,13 +4246,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>407185</v>
+        <v>380142</v>
       </c>
       <c r="F93" t="n">
-        <v>169496</v>
+        <v>99813</v>
       </c>
       <c r="G93" t="n">
-        <v>576681</v>
+        <v>479955</v>
       </c>
     </row>
     <row r="94">
@@ -4228,12 +4263,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Amy Morton</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VP and Chief of Staff</t>
+          <t>SVP Enrollment Management</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4242,13 +4277,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>203888</v>
+        <v>407185</v>
       </c>
       <c r="F94" t="n">
-        <v>40818</v>
+        <v>169496</v>
       </c>
       <c r="G94" t="n">
-        <v>244706</v>
+        <v>576681</v>
       </c>
     </row>
     <row r="95">
@@ -4259,12 +4294,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Michelle Jones-Johnson</t>
+          <t>Amy Morton</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VP for Talent Development/CDO</t>
+          <t>VP and Chief of Staff</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4273,13 +4308,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>242439</v>
+        <v>203888</v>
       </c>
       <c r="F95" t="n">
-        <v>49531</v>
+        <v>40818</v>
       </c>
       <c r="G95" t="n">
-        <v>291970</v>
+        <v>244706</v>
       </c>
     </row>
     <row r="96">
@@ -4290,27 +4325,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Michael Ginzberg</t>
+          <t>Michelle Jones-Johnson</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dean Foisie Business School</t>
+          <t>VP for Talent Development/CDO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>406939</v>
+        <v>242439</v>
       </c>
       <c r="F96" t="n">
-        <v>50177</v>
+        <v>49531</v>
       </c>
       <c r="G96" t="n">
-        <v>457116</v>
+        <v>291970</v>
       </c>
     </row>
     <row r="97">
@@ -4321,27 +4356,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jamal Yagoobi</t>
+          <t>Michael Ginzberg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dept. Head Mechanical Eng</t>
+          <t>Dean Foisie Business School</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>322994</v>
+        <v>406939</v>
       </c>
       <c r="F97" t="n">
-        <v>106564</v>
+        <v>50177</v>
       </c>
       <c r="G97" t="n">
-        <v>429558</v>
+        <v>457116</v>
       </c>
     </row>
     <row r="98">
@@ -4352,27 +4387,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Jamal Yagoobi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Prof Mechanical Engineering</t>
+          <t>Dept. Head Mechanical Eng</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>371576</v>
+        <v>322994</v>
       </c>
       <c r="F98" t="n">
-        <v>56076</v>
+        <v>106564</v>
       </c>
       <c r="G98" t="n">
-        <v>427652</v>
+        <v>429558</v>
       </c>
     </row>
     <row r="99">
@@ -4383,27 +4418,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Winston Soboyejo</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Dean of Engineering</t>
+          <t>Prof Mechanical Engineering</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>342897</v>
+        <v>371576</v>
       </c>
       <c r="F99" t="n">
-        <v>52296</v>
+        <v>56076</v>
       </c>
       <c r="G99" t="n">
-        <v>395193</v>
+        <v>427652</v>
       </c>
     </row>
     <row r="100">
@@ -4414,27 +4449,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Joseph Sarkis</t>
+          <t>Winston Soboyejo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Professor School of Business</t>
+          <t>Dean of Engineering</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>270448</v>
+        <v>342897</v>
       </c>
       <c r="F100" t="n">
-        <v>100214</v>
+        <v>52296</v>
       </c>
       <c r="G100" t="n">
-        <v>370662</v>
+        <v>395193</v>
       </c>
     </row>
     <row r="101">
@@ -4445,12 +4480,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Eric Overstrom thru 062017</t>
+          <t>Joseph Sarkis</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Professor of Biology and Tech</t>
+          <t>Professor School of Business</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4459,13 +4494,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>161679</v>
+        <v>270448</v>
       </c>
       <c r="F101" t="n">
-        <v>22004</v>
+        <v>100214</v>
       </c>
       <c r="G101" t="n">
-        <v>183683</v>
+        <v>370662</v>
       </c>
     </row>
     <row r="102">
@@ -4476,58 +4511,58 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>Eric Overstrom thru 062017</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>former AVP &amp; Chief of Staff</t>
+          <t>Professor of Biology and Tech</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>134232</v>
+        <v>161679</v>
       </c>
       <c r="F102" t="n">
-        <v>24868</v>
+        <v>22004</v>
       </c>
       <c r="G102" t="n">
-        <v>159100</v>
+        <v>183683</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>former AVP &amp; Chief of Staff</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>773438</v>
+        <v>134232</v>
       </c>
       <c r="F103" t="n">
-        <v>221519</v>
+        <v>24868</v>
       </c>
       <c r="G103" t="n">
-        <v>994957</v>
+        <v>159100</v>
       </c>
     </row>
     <row r="104">
@@ -4538,27 +4573,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>495597</v>
+        <v>773438</v>
       </c>
       <c r="F104" t="n">
-        <v>169030</v>
+        <v>221519</v>
       </c>
       <c r="G104" t="n">
-        <v>664627</v>
+        <v>994957</v>
       </c>
     </row>
     <row r="105">
@@ -4569,12 +4604,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Secretary, AVP, Chief of Staff</t>
+          <t>TREASURER, EXECUTIVE VP &amp; CFO</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4583,13 +4618,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>133126</v>
+        <v>495597</v>
       </c>
       <c r="F105" t="n">
-        <v>22102</v>
+        <v>169030</v>
       </c>
       <c r="G105" t="n">
-        <v>155228</v>
+        <v>664627</v>
       </c>
     </row>
     <row r="106">
@@ -4600,12 +4635,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ASST SEC, SVP ENROLLMENT MGMT</t>
+          <t>Secretary, AVP, Chief of Staff</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4614,13 +4649,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>393170</v>
+        <v>133126</v>
       </c>
       <c r="F106" t="n">
-        <v>122190</v>
+        <v>22102</v>
       </c>
       <c r="G106" t="n">
-        <v>515360</v>
+        <v>155228</v>
       </c>
     </row>
     <row r="107">
@@ -4631,27 +4666,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Charlene Bellows</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Assc. Treas/Contr (thru 12/16)</t>
+          <t>ASST SEC, SVP ENROLLMENT MGMT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>147140</v>
+        <v>393170</v>
       </c>
       <c r="F107" t="n">
-        <v>32809</v>
+        <v>122190</v>
       </c>
       <c r="G107" t="n">
-        <v>179949</v>
+        <v>515360</v>
       </c>
     </row>
     <row r="108">
@@ -4662,27 +4697,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Charlene Bellows</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VP ACADEMIC &amp; CORPORATE DEV</t>
+          <t>Assc. Treas/Contr (thru 12/16)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>445983</v>
+        <v>147140</v>
       </c>
       <c r="F108" t="n">
-        <v>148070</v>
+        <v>32809</v>
       </c>
       <c r="G108" t="n">
-        <v>594053</v>
+        <v>179949</v>
       </c>
     </row>
     <row r="109">
@@ -4693,12 +4728,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VP UNIVERSITY ADVANCEMENT</t>
+          <t>VP ACADEMIC &amp; CORPORATE DEV</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4707,13 +4742,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>364431</v>
+        <v>445983</v>
       </c>
       <c r="F109" t="n">
-        <v>95593</v>
+        <v>148070</v>
       </c>
       <c r="G109" t="n">
-        <v>460024</v>
+        <v>594053</v>
       </c>
     </row>
     <row r="110">
@@ -4724,27 +4759,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Bruce Bursten</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Provost, SVP, Acad Affairs</t>
+          <t>VP UNIVERSITY ADVANCEMENT</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>381115</v>
+        <v>364431</v>
       </c>
       <c r="F110" t="n">
-        <v>64044</v>
+        <v>95593</v>
       </c>
       <c r="G110" t="n">
-        <v>445159</v>
+        <v>460024</v>
       </c>
     </row>
     <row r="111">
@@ -4755,27 +4790,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Philip Clay</t>
+          <t>Bruce Bursten</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>VP STUDENT AFFAIRS</t>
+          <t>Provost, SVP, Acad Affairs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>208064</v>
+        <v>381115</v>
       </c>
       <c r="F111" t="n">
-        <v>56145</v>
+        <v>64044</v>
       </c>
       <c r="G111" t="n">
-        <v>264209</v>
+        <v>445159</v>
       </c>
     </row>
     <row r="112">
@@ -4786,27 +4821,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Michael Ginzberg</t>
+          <t>Philip Clay</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Dean Foisie Business School</t>
+          <t>VP STUDENT AFFAIRS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>400678</v>
+        <v>208064</v>
       </c>
       <c r="F112" t="n">
-        <v>48160</v>
+        <v>56145</v>
       </c>
       <c r="G112" t="n">
-        <v>448838</v>
+        <v>264209</v>
       </c>
     </row>
     <row r="113">
@@ -4817,27 +4852,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Michael Ginzberg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Prof Mechanical Engineering</t>
+          <t>Dean Foisie Business School</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>354245</v>
+        <v>400678</v>
       </c>
       <c r="F113" t="n">
-        <v>51230</v>
+        <v>48160</v>
       </c>
       <c r="G113" t="n">
-        <v>405475</v>
+        <v>448838</v>
       </c>
     </row>
     <row r="114">
@@ -4848,27 +4883,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Karen Kashmanian Oates</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dean of Arts &amp; Sciences</t>
+          <t>Prof Mechanical Engineering</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>329796</v>
+        <v>354245</v>
       </c>
       <c r="F114" t="n">
-        <v>35269</v>
+        <v>51230</v>
       </c>
       <c r="G114" t="n">
-        <v>365065</v>
+        <v>405475</v>
       </c>
     </row>
     <row r="115">
@@ -4879,27 +4914,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mark Rice</t>
+          <t>Karen Kashmanian Oates</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Professor School of Business</t>
+          <t>Dean of Arts &amp; Sciences</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>326220</v>
+        <v>329796</v>
       </c>
       <c r="F115" t="n">
-        <v>52991</v>
+        <v>35269</v>
       </c>
       <c r="G115" t="n">
-        <v>379211</v>
+        <v>365065</v>
       </c>
     </row>
     <row r="116">
@@ -4910,27 +4945,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jamal Yagoobi</t>
+          <t>Mark Rice</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Dept. Head Mechanical Eng</t>
+          <t>Professor School of Business</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>312032</v>
+        <v>326220</v>
       </c>
       <c r="F116" t="n">
-        <v>101855</v>
+        <v>52991</v>
       </c>
       <c r="G116" t="n">
-        <v>413887</v>
+        <v>379211</v>
       </c>
     </row>
     <row r="117">
@@ -4941,58 +4976,58 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Eric Overstrom</t>
+          <t>Jamal Yagoobi</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Professor of Biology and Tech</t>
+          <t>Dept. Head Mechanical Eng</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>258708</v>
+        <v>312032</v>
       </c>
       <c r="F117" t="n">
-        <v>41962</v>
+        <v>101855</v>
       </c>
       <c r="G117" t="n">
-        <v>300670</v>
+        <v>413887</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>Eric Overstrom</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Professor of Biology and Tech</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>683192</v>
+        <v>258708</v>
       </c>
       <c r="F118" t="n">
-        <v>110358</v>
+        <v>41962</v>
       </c>
       <c r="G118" t="n">
-        <v>793550</v>
+        <v>300670</v>
       </c>
     </row>
     <row r="119">
@@ -5003,27 +5038,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Treasurer, Executive VP &amp; CFO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>508555</v>
+        <v>683192</v>
       </c>
       <c r="F119" t="n">
-        <v>163675</v>
+        <v>110358</v>
       </c>
       <c r="G119" t="n">
-        <v>672230</v>
+        <v>793550</v>
       </c>
     </row>
     <row r="120">
@@ -5034,27 +5069,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Amy Roderick thru 1015</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Controller &amp; Asst. Treasurer</t>
+          <t>Treasurer, Executive VP &amp; CFO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>88010</v>
+        <v>508555</v>
       </c>
       <c r="F120" t="n">
-        <v>5145</v>
+        <v>163675</v>
       </c>
       <c r="G120" t="n">
-        <v>93155</v>
+        <v>672230</v>
       </c>
     </row>
     <row r="121">
@@ -5065,27 +5100,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A Tracy Hassett</t>
+          <t>Amy Roderick thru 1015</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Asst. Sec. &amp; VP HR (thru 9/15)</t>
+          <t>Controller &amp; Asst. Treasurer</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>212057</v>
+        <v>88010</v>
       </c>
       <c r="F121" t="n">
-        <v>21326</v>
+        <v>5145</v>
       </c>
       <c r="G121" t="n">
-        <v>233383</v>
+        <v>93155</v>
       </c>
     </row>
     <row r="122">
@@ -5096,12 +5131,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>A Tracy Hassett</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Secretary, AVP, Chief of Staff</t>
+          <t>Asst. Sec. &amp; VP HR (thru 9/15)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5110,13 +5145,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>128841</v>
+        <v>212057</v>
       </c>
       <c r="F122" t="n">
-        <v>22145</v>
+        <v>21326</v>
       </c>
       <c r="G122" t="n">
-        <v>150986</v>
+        <v>233383</v>
       </c>
     </row>
     <row r="123">
@@ -5127,12 +5162,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VP Academic &amp; Corporate Dev</t>
+          <t>Secretary, AVP, Chief of Staff</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5141,13 +5176,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>450151</v>
+        <v>128841</v>
       </c>
       <c r="F123" t="n">
-        <v>107645</v>
+        <v>22145</v>
       </c>
       <c r="G123" t="n">
-        <v>557796</v>
+        <v>150986</v>
       </c>
     </row>
     <row r="124">
@@ -5158,12 +5193,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Senior VP Enrollment Mgmt</t>
+          <t>VP Academic &amp; Corporate Dev</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5172,13 +5207,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>396469</v>
+        <v>450151</v>
       </c>
       <c r="F124" t="n">
-        <v>105583</v>
+        <v>107645</v>
       </c>
       <c r="G124" t="n">
-        <v>502052</v>
+        <v>557796</v>
       </c>
     </row>
     <row r="125">
@@ -5189,12 +5224,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>VP University Advancement</t>
+          <t>Senior VP Enrollment Mgmt</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5203,13 +5238,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>308177</v>
+        <v>396469</v>
       </c>
       <c r="F125" t="n">
-        <v>93978</v>
+        <v>105583</v>
       </c>
       <c r="G125" t="n">
-        <v>402155</v>
+        <v>502052</v>
       </c>
     </row>
     <row r="126">
@@ -5220,27 +5255,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bruce Bursten</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Provost, SVP Acad Affairs</t>
+          <t>VP University Advancement</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>222790</v>
+        <v>308177</v>
       </c>
       <c r="F126" t="n">
-        <v>24768</v>
+        <v>93978</v>
       </c>
       <c r="G126" t="n">
-        <v>247558</v>
+        <v>402155</v>
       </c>
     </row>
     <row r="127">
@@ -5251,27 +5286,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Philip Clay</t>
+          <t>Bruce Bursten</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>VP Student Affairs</t>
+          <t>Provost, SVP Acad Affairs</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>181860</v>
+        <v>222790</v>
       </c>
       <c r="F127" t="n">
-        <v>28767</v>
+        <v>24768</v>
       </c>
       <c r="G127" t="n">
-        <v>210627</v>
+        <v>247558</v>
       </c>
     </row>
     <row r="128">
@@ -5282,27 +5317,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Philip Clay</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Professor Mechanical Enginrng</t>
+          <t>VP Student Affairs</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>356667</v>
+        <v>181860</v>
       </c>
       <c r="F128" t="n">
-        <v>51902</v>
+        <v>28767</v>
       </c>
       <c r="G128" t="n">
-        <v>408569</v>
+        <v>210627</v>
       </c>
     </row>
     <row r="129">
@@ -5313,27 +5348,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Joseph Sarkis</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Dept. Head School of Business</t>
+          <t>Professor Mechanical Enginrng</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>334772</v>
+        <v>356667</v>
       </c>
       <c r="F129" t="n">
-        <v>94519</v>
+        <v>51902</v>
       </c>
       <c r="G129" t="n">
-        <v>429291</v>
+        <v>408569</v>
       </c>
     </row>
     <row r="130">
@@ -5344,12 +5379,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jamal Yagoobi</t>
+          <t>Joseph Sarkis</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dept. Head Mechanical Eng</t>
+          <t>Dept. Head School of Business</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5358,13 +5393,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>326173</v>
+        <v>334772</v>
       </c>
       <c r="F130" t="n">
-        <v>112204</v>
+        <v>94519</v>
       </c>
       <c r="G130" t="n">
-        <v>438377</v>
+        <v>429291</v>
       </c>
     </row>
     <row r="131">
@@ -5375,27 +5410,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mark Rice</t>
+          <t>Jamal Yagoobi</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Professor School of Business</t>
+          <t>Dept. Head Mechanical Eng</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>325634</v>
+        <v>326173</v>
       </c>
       <c r="F131" t="n">
-        <v>54502</v>
+        <v>112204</v>
       </c>
       <c r="G131" t="n">
-        <v>380136</v>
+        <v>438377</v>
       </c>
     </row>
     <row r="132">
@@ -5406,12 +5441,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Eric Overstrom</t>
+          <t>Mark Rice</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Professor of Biology and Tech</t>
+          <t>Professor School of Business</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5420,13 +5455,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>458965</v>
+        <v>325634</v>
       </c>
       <c r="F132" t="n">
-        <v>50755</v>
+        <v>54502</v>
       </c>
       <c r="G132" t="n">
-        <v>509720</v>
+        <v>380136</v>
       </c>
     </row>
     <row r="133">
@@ -5437,58 +5472,58 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Charlene Bellows</t>
+          <t>Eric Overstrom</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Controller &amp; Fmr. Asst. Treas.</t>
+          <t>Professor of Biology and Tech</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>112228</v>
+        <v>458965</v>
       </c>
       <c r="F133" t="n">
-        <v>29710</v>
+        <v>50755</v>
       </c>
       <c r="G133" t="n">
-        <v>141938</v>
+        <v>509720</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Laurie Leshin</t>
+          <t>Charlene Bellows</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>President beginning June 2014</t>
+          <t>Controller &amp; Fmr. Asst. Treas.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>317732</v>
+        <v>112228</v>
       </c>
       <c r="F134" t="n">
-        <v>90660</v>
+        <v>29710</v>
       </c>
       <c r="G134" t="n">
-        <v>408392</v>
+        <v>141938</v>
       </c>
     </row>
     <row r="135">
@@ -5499,27 +5534,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Philip Ryan</t>
+          <t>Laurie Leshin</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Chairman 6/14;Fmr interim pres</t>
+          <t>President beginning June 2014</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>230239</v>
+        <v>317732</v>
       </c>
       <c r="F135" t="n">
-        <v>30942</v>
+        <v>90660</v>
       </c>
       <c r="G135" t="n">
-        <v>261181</v>
+        <v>408392</v>
       </c>
     </row>
     <row r="136">
@@ -5530,27 +5565,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Charlene Bellows</t>
+          <t>Philip Ryan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Associate Treasurer,Controller</t>
+          <t>Chairman 6/14;Fmr interim pres</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>122085</v>
+        <v>230239</v>
       </c>
       <c r="F136" t="n">
-        <v>23838</v>
+        <v>30942</v>
       </c>
       <c r="G136" t="n">
-        <v>145923</v>
+        <v>261181</v>
       </c>
     </row>
     <row r="137">
@@ -5561,27 +5596,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A Tracy Hassett</t>
+          <t>Charlene Bellows</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Assistant Secretary, VP HR</t>
+          <t>Associate Treasurer,Controller</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>268088</v>
+        <v>122085</v>
       </c>
       <c r="F137" t="n">
-        <v>59897</v>
+        <v>23838</v>
       </c>
       <c r="G137" t="n">
-        <v>327985</v>
+        <v>145923</v>
       </c>
     </row>
     <row r="138">
@@ -5592,12 +5627,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>A Tracy Hassett</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Secretary, AVP, Chief of Staff</t>
+          <t>Assistant Secretary, VP HR</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5606,13 +5641,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>125497</v>
+        <v>268088</v>
       </c>
       <c r="F138" t="n">
-        <v>23523</v>
+        <v>59897</v>
       </c>
       <c r="G138" t="n">
-        <v>149020</v>
+        <v>327985</v>
       </c>
     </row>
     <row r="139">
@@ -5623,12 +5658,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Treasurer &amp; Executive VP &amp; CFO</t>
+          <t>Secretary, AVP, Chief of Staff</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5637,13 +5672,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>506526</v>
+        <v>125497</v>
       </c>
       <c r="F139" t="n">
-        <v>158510</v>
+        <v>23523</v>
       </c>
       <c r="G139" t="n">
-        <v>665036</v>
+        <v>149020</v>
       </c>
     </row>
     <row r="140">
@@ -5654,12 +5689,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VP Academic and Corporate Dev</t>
+          <t>Treasurer &amp; Executive VP &amp; CFO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5668,13 +5703,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>444933</v>
+        <v>506526</v>
       </c>
       <c r="F140" t="n">
-        <v>112869</v>
+        <v>158510</v>
       </c>
       <c r="G140" t="n">
-        <v>557802</v>
+        <v>665036</v>
       </c>
     </row>
     <row r="141">
@@ -5685,12 +5720,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VP University Advancement</t>
+          <t>VP Academic and Corporate Dev</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5699,13 +5734,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>303296</v>
+        <v>444933</v>
       </c>
       <c r="F141" t="n">
-        <v>91391</v>
+        <v>112869</v>
       </c>
       <c r="G141" t="n">
-        <v>394687</v>
+        <v>557802</v>
       </c>
     </row>
     <row r="142">
@@ -5716,27 +5751,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Eric Overstrom</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Provost, SVP Acad Affairs 5/15</t>
+          <t>VP University Advancement</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>438509</v>
+        <v>303296</v>
       </c>
       <c r="F142" t="n">
-        <v>99574</v>
+        <v>91391</v>
       </c>
       <c r="G142" t="n">
-        <v>538083</v>
+        <v>394687</v>
       </c>
     </row>
     <row r="143">
@@ -5747,27 +5782,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>Eric Overstrom</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Senior VP Enrollment Mgmt</t>
+          <t>Provost, SVP Acad Affairs 5/15</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>387064</v>
+        <v>438509</v>
       </c>
       <c r="F143" t="n">
-        <v>103991</v>
+        <v>99574</v>
       </c>
       <c r="G143" t="n">
-        <v>491055</v>
+        <v>538083</v>
       </c>
     </row>
     <row r="144">
@@ -5778,27 +5813,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Professor Mechanical Enginrng</t>
+          <t>Senior VP Enrollment Mgmt</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>346368</v>
+        <v>387064</v>
       </c>
       <c r="F144" t="n">
-        <v>47415</v>
+        <v>103991</v>
       </c>
       <c r="G144" t="n">
-        <v>393783</v>
+        <v>491055</v>
       </c>
     </row>
     <row r="145">
@@ -5809,27 +5844,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>David Cyganski</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Interim Dean of Engineering</t>
+          <t>Professor Mechanical Enginrng</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>336556</v>
+        <v>346368</v>
       </c>
       <c r="F145" t="n">
-        <v>89880</v>
+        <v>47415</v>
       </c>
       <c r="G145" t="n">
-        <v>426436</v>
+        <v>393783</v>
       </c>
     </row>
     <row r="146">
@@ -5840,12 +5875,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Karen Oates Kashmanian</t>
+          <t>David Cyganski</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Dean of Arts and Sciences</t>
+          <t>Interim Dean of Engineering</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5854,13 +5889,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>316363</v>
+        <v>336556</v>
       </c>
       <c r="F146" t="n">
-        <v>34367</v>
+        <v>89880</v>
       </c>
       <c r="G146" t="n">
-        <v>350730</v>
+        <v>426436</v>
       </c>
     </row>
     <row r="147">
@@ -5871,27 +5906,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mark Rice</t>
+          <t>Karen Oates Kashmanian</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Dean of Arts and Sciences</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>369318</v>
+        <v>316363</v>
       </c>
       <c r="F147" t="n">
-        <v>51169</v>
+        <v>34367</v>
       </c>
       <c r="G147" t="n">
-        <v>420487</v>
+        <v>350730</v>
       </c>
     </row>
     <row r="148">
@@ -5902,27 +5937,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Joseph Sarkis</t>
+          <t>Mark Rice</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Dept. Head School of Business</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>328897</v>
+        <v>369318</v>
       </c>
       <c r="F148" t="n">
-        <v>93266</v>
+        <v>51169</v>
       </c>
       <c r="G148" t="n">
-        <v>422163</v>
+        <v>420487</v>
       </c>
     </row>
     <row r="149">
@@ -5933,43 +5968,43 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dennis Berkey</t>
+          <t>Joseph Sarkis</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Former President thru May 2013</t>
+          <t>Dept. Head School of Business</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>327756</v>
+        <v>328897</v>
       </c>
       <c r="F149" t="n">
-        <v>3693</v>
+        <v>93266</v>
       </c>
       <c r="G149" t="n">
-        <v>331449</v>
+        <v>422163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Philip Ryan</t>
+          <t>Dennis Berkey</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Interim President; Chairman June 2014; Trustee</t>
+          <t>Former President thru May 2013</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5978,13 +6013,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>296096</v>
+        <v>327756</v>
       </c>
       <c r="F150" t="n">
-        <v>40963</v>
+        <v>3693</v>
       </c>
       <c r="G150" t="n">
-        <v>337059</v>
+        <v>331449</v>
       </c>
     </row>
     <row r="151">
@@ -5995,27 +6030,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Jeffrey Solomon</t>
+          <t>Philip Ryan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Treasurer and Executive VP and CFO</t>
+          <t>Interim President; Chairman June 2014; Trustee</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>481727</v>
+        <v>296096</v>
       </c>
       <c r="F151" t="n">
-        <v>159124</v>
+        <v>40963</v>
       </c>
       <c r="G151" t="n">
-        <v>640851</v>
+        <v>337059</v>
       </c>
     </row>
     <row r="152">
@@ -6026,12 +6061,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A Tracy Hassett</t>
+          <t>Jeffrey Solomon</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Assistant Secretary and VP Human Resources</t>
+          <t>Treasurer and Executive VP and CFO</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6040,13 +6075,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>255791</v>
+        <v>481727</v>
       </c>
       <c r="F152" t="n">
-        <v>50126</v>
+        <v>159124</v>
       </c>
       <c r="G152" t="n">
-        <v>305917</v>
+        <v>640851</v>
       </c>
     </row>
     <row r="153">
@@ -6057,12 +6092,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Stephanie Pasha</t>
+          <t>A Tracy Hassett</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Secretary and Assistant VP and Chief of Staff</t>
+          <t>Assistant Secretary and VP Human Resources</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6071,13 +6106,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>122324</v>
+        <v>255791</v>
       </c>
       <c r="F153" t="n">
-        <v>21464</v>
+        <v>50126</v>
       </c>
       <c r="G153" t="n">
-        <v>143788</v>
+        <v>305917</v>
       </c>
     </row>
     <row r="154">
@@ -6088,27 +6123,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Charlene Bellows</t>
+          <t>Stephanie Pasha</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Associate Treasurer and Controller</t>
+          <t>Secretary and Assistant VP and Chief of Staff</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>114130</v>
+        <v>122324</v>
       </c>
       <c r="F154" t="n">
-        <v>21054</v>
+        <v>21464</v>
       </c>
       <c r="G154" t="n">
-        <v>135184</v>
+        <v>143788</v>
       </c>
     </row>
     <row r="155">
@@ -6119,27 +6154,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Eric Overstrom</t>
+          <t>Charlene Bellows</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Provost and Senior VP Academic Affairs</t>
+          <t>Associate Treasurer and Controller</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>427155</v>
+        <v>114130</v>
       </c>
       <c r="F155" t="n">
-        <v>105498</v>
+        <v>21054</v>
       </c>
       <c r="G155" t="n">
-        <v>532653</v>
+        <v>135184</v>
       </c>
     </row>
     <row r="156">
@@ -6150,27 +6185,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Stephen Flavin</t>
+          <t>Eric Overstrom</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>VP Academic and Corporate Development</t>
+          <t>Provost and Senior VP Academic Affairs</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>Provost</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>367043</v>
+        <v>427155</v>
       </c>
       <c r="F156" t="n">
-        <v>119773</v>
+        <v>105498</v>
       </c>
       <c r="G156" t="n">
-        <v>486816</v>
+        <v>532653</v>
       </c>
     </row>
     <row r="157">
@@ -6181,12 +6216,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Kristin Tichenor</t>
+          <t>Stephen Flavin</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Senior VP Enrollment Management</t>
+          <t>VP Academic and Corporate Development</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6195,13 +6230,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>361268</v>
+        <v>367043</v>
       </c>
       <c r="F157" t="n">
-        <v>96984</v>
+        <v>119773</v>
       </c>
       <c r="G157" t="n">
-        <v>458252</v>
+        <v>486816</v>
       </c>
     </row>
     <row r="158">
@@ -6212,12 +6247,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>William McAvoy</t>
+          <t>Kristin Tichenor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>VP University Advancement</t>
+          <t>Senior VP Enrollment Management</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6226,13 +6261,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>296548</v>
+        <v>361268</v>
       </c>
       <c r="F158" t="n">
-        <v>80264</v>
+        <v>96984</v>
       </c>
       <c r="G158" t="n">
-        <v>376812</v>
+        <v>458252</v>
       </c>
     </row>
     <row r="159">
@@ -6243,27 +6278,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mark Rice</t>
+          <t>William McAvoy</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Vice Provost for Innovation &amp; Entrepreneurship</t>
+          <t>VP University Advancement</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Vice Provost</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>357582</v>
+        <v>296548</v>
       </c>
       <c r="F159" t="n">
-        <v>45988</v>
+        <v>80264</v>
       </c>
       <c r="G159" t="n">
-        <v>403570</v>
+        <v>376812</v>
       </c>
     </row>
     <row r="160">
@@ -6274,27 +6309,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Selcuk Guceri</t>
+          <t>Mark Rice</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Professor Mechanical Engineering</t>
+          <t>Vice Provost for Innovation &amp; Entrepreneurship</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Prof</t>
+          <t>Vice Provost</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>354177</v>
+        <v>357582</v>
       </c>
       <c r="F160" t="n">
-        <v>51726</v>
+        <v>45988</v>
       </c>
       <c r="G160" t="n">
-        <v>405903</v>
+        <v>403570</v>
       </c>
     </row>
     <row r="161">
@@ -6305,7 +6340,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Diran Apelian</t>
+          <t>Selcuk Guceri</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6319,13 +6354,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>340872</v>
+        <v>354177</v>
       </c>
       <c r="F161" t="n">
-        <v>44109</v>
+        <v>51726</v>
       </c>
       <c r="G161" t="n">
-        <v>384981</v>
+        <v>405903</v>
       </c>
     </row>
     <row r="162">
@@ -6336,27 +6371,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Karen Oates Kashmanian</t>
+          <t>Diran Apelian</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Dean of Arts and Sciences</t>
+          <t>Professor Mechanical Engineering</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>311896</v>
+        <v>340872</v>
       </c>
       <c r="F162" t="n">
-        <v>33278</v>
+        <v>44109</v>
       </c>
       <c r="G162" t="n">
-        <v>345174</v>
+        <v>384981</v>
       </c>
     </row>
     <row r="163">
@@ -6367,27 +6402,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Jamal Yagoobi</t>
+          <t>Karen Oates Kashmanian</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Department Head Mechanical Engineering</t>
+          <t>Dean of Arts and Sciences</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>294826</v>
+        <v>311896</v>
       </c>
       <c r="F163" t="n">
-        <v>60229</v>
+        <v>33278</v>
       </c>
       <c r="G163" t="n">
-        <v>355055</v>
+        <v>345174</v>
       </c>
     </row>
     <row r="164">
@@ -6398,27 +6433,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>John Orr</t>
+          <t>Jamal Yagoobi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Former Provost</t>
+          <t>Department Head Mechanical Engineering</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Provost</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>142558</v>
+        <v>294826</v>
       </c>
       <c r="F164" t="n">
-        <v>30503</v>
+        <v>60229</v>
       </c>
       <c r="G164" t="n">
-        <v>173061</v>
+        <v>355055</v>
       </c>
     </row>
     <row r="165">
@@ -6429,26 +6464,57 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>John Orr</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Former Provost</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Provost</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>142558</v>
+      </c>
+      <c r="F165" t="n">
+        <v>30503</v>
+      </c>
+      <c r="G165" t="n">
+        <v>173061</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Dennis Berkey</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Former President served through May 2013</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="E165" t="n">
+      <c r="E166" t="n">
         <v>632546</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F166" t="n">
         <v>73111</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G166" t="n">
         <v>705657</v>
       </c>
     </row>
